--- a/Price Chart.xlsx
+++ b/Price Chart.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5e8cbc6d3dc20808/Documents/GitHub/ColvardAcademy.github.io/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACC\Documents\GitHub\ColvardAcademy.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB01055-4509-4F3D-B53D-F98E01B528E4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,62 +25,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>hourly</t>
   </si>
   <si>
-    <t>Phone Tutoring</t>
-  </si>
-  <si>
-    <t>Video Turoring</t>
-  </si>
-  <si>
-    <t>per question answered</t>
-  </si>
-  <si>
-    <t>Text Tutoring</t>
-  </si>
-  <si>
-    <t>Unlimited Texts</t>
-  </si>
-  <si>
-    <t>monthly</t>
-  </si>
-  <si>
-    <t>Thesis Consultation</t>
-  </si>
-  <si>
-    <t>Dicertation Consultation</t>
-  </si>
-  <si>
-    <t>Grant Writing Consultaion</t>
-  </si>
-  <si>
     <t>First-Time College Student Consultation</t>
   </si>
   <si>
     <t>3 hour max</t>
+  </si>
+  <si>
+    <t>Thesis and Dicertation Consultations</t>
+  </si>
+  <si>
+    <t>In-depth analysis</t>
+  </si>
+  <si>
+    <t>Initial concet/brainstorm session</t>
+  </si>
+  <si>
+    <t>flat rate</t>
+  </si>
+  <si>
+    <t>Statisics/Data Analysis assistance</t>
+  </si>
+  <si>
+    <t>Results Interpretation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,9 +98,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,119 +415,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.36328125" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>